--- a/RSUAndOptionsCompany_FA63D412.xlsx
+++ b/RSUAndOptionsCompany_FA63D412.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RutA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ACCFC5-7507-4600-868A-AB58C98BA1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88A2552-3372-4669-B3B2-710A7120C54D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Restricted Stock" sheetId="6" r:id="rId1"/>
@@ -20,12 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -154,14 +148,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -516,16 +510,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3BCC21-36AE-4739-BB86-C51AE22D1AC8}">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="10" max="10" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="16.265625" customWidth="1"/>
+    <col min="30" max="30" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -641,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -686,7 +681,9 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
+      <c r="AD2" s="3">
+        <v>120</v>
+      </c>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
@@ -719,7 +716,7 @@
       <c r="BI2" s="3"/>
       <c r="BJ2" s="3"/>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -764,7 +761,9 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
+      <c r="AD3" s="3">
+        <v>220</v>
+      </c>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
@@ -797,7 +796,7 @@
       <c r="BI3" s="3"/>
       <c r="BJ3" s="3"/>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -842,7 +841,9 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
+      <c r="AD4" s="3">
+        <v>320</v>
+      </c>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
@@ -875,7 +876,7 @@
       <c r="BI4" s="3"/>
       <c r="BJ4" s="3"/>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -947,6 +948,73 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="c9f8b378-13e0-4d1a-8f1a-294d73b4d7fb">VFWR3P233HUE-1345-28868</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="c9f8b378-13e0-4d1a-8f1a-294d73b4d7fb">
+      <Url>http://ixnes2016/marachot/_layouts/15/DocIdRedir.aspx?ID=VFWR3P233HUE-1345-28868</Url>
+      <Description>VFWR3P233HUE-1345-28868</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך" ma:contentTypeID="0x010100EF11FD152D7A3A4CB851BCED33893D04" ma:contentTypeVersion="7" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="1dcb1d88e85fe74fa13af38a5592d85b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9f8b378-13e0-4d1a-8f1a-294d73b4d7fb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e9881565756362c9f463cd287d02926" ns2:_="">
     <xsd:import namespace="c9f8b378-13e0-4d1a-8f1a-294d73b4d7fb"/>
@@ -1111,74 +1179,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{192F246F-480E-445E-BF50-90752A972D16}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c9f8b378-13e0-4d1a-8f1a-294d73b4d7fb"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02FE4176-FE40-4514-B2B1-4520F1932C8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="c9f8b378-13e0-4d1a-8f1a-294d73b4d7fb">VFWR3P233HUE-1345-28868</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="c9f8b378-13e0-4d1a-8f1a-294d73b4d7fb">
-      <Url>http://ixnes2016/marachot/_layouts/15/DocIdRedir.aspx?ID=VFWR3P233HUE-1345-28868</Url>
-      <Description>VFWR3P233HUE-1345-28868</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F02EF121-5C2C-4282-A31A-B5AA4BD5D88B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40937F06-B71D-4783-9DCA-9D59FE57733E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1194,36 +1227,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F02EF121-5C2C-4282-A31A-B5AA4BD5D88B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02FE4176-FE40-4514-B2B1-4520F1932C8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{192F246F-480E-445E-BF50-90752A972D16}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c9f8b378-13e0-4d1a-8f1a-294d73b4d7fb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>